--- a/work/数据统计/Aster统计.xlsx
+++ b/work/数据统计/Aster统计.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangguangyunshi/catchDatas/work/数据统计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FB04C6-52EA-0F43-9B25-5FB160841716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71EBF41-40D9-3145-8882-A4A2F8EBE21B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="760" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="20190922" sheetId="5" r:id="rId1"/>
-    <sheet name="20190916" sheetId="2" r:id="rId2"/>
-    <sheet name="20190901" sheetId="1" r:id="rId3"/>
-    <sheet name="20190825" sheetId="3" r:id="rId4"/>
-    <sheet name="数据勿删" sheetId="4" r:id="rId5"/>
+    <sheet name="20191013" sheetId="6" r:id="rId1"/>
+    <sheet name="20190922" sheetId="5" r:id="rId2"/>
+    <sheet name="20190916" sheetId="2" r:id="rId3"/>
+    <sheet name="20190901" sheetId="1" r:id="rId4"/>
+    <sheet name="20190825" sheetId="3" r:id="rId5"/>
+    <sheet name="数据勿删" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20190901'!$A$1:$A$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20190901'!$A$1:$A$91</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="255">
   <si>
     <t>昵称</t>
   </si>
@@ -800,6 +801,33 @@
   </si>
   <si>
     <t>岗不达</t>
+  </si>
+  <si>
+    <t>じve佑手</t>
+  </si>
+  <si>
+    <t>9TXT094R0278</t>
+  </si>
+  <si>
+    <t>迷途小亘哥</t>
+  </si>
+  <si>
+    <t>9XZUKY3MHME2</t>
+  </si>
+  <si>
+    <t>��</t>
+  </si>
+  <si>
+    <t>9637MK4Q9QUQ</t>
+  </si>
+  <si>
+    <t>神秘人彦</t>
+  </si>
+  <si>
+    <t>鬼舞辻无惨</t>
+  </si>
+  <si>
+    <t>9RN86J4K86DA</t>
   </si>
 </sst>
 </file>
@@ -862,7 +890,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1277,10 +1315,3217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A5E53-73E0-4B48-8154-7F474D90641B}">
+  <dimension ref="A1:K91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6">
+        <v>21542</v>
+      </c>
+      <c r="C2" s="6">
+        <v>10192371</v>
+      </c>
+      <c r="D2" s="6">
+        <v>143694</v>
+      </c>
+      <c r="E2" s="6">
+        <v>5865</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2791668</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J2" s="6">
+        <v>2405</v>
+      </c>
+      <c r="K2" s="6">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1229</v>
+      </c>
+      <c r="C3" s="6">
+        <v>9593773</v>
+      </c>
+      <c r="D3" s="6">
+        <v>130020</v>
+      </c>
+      <c r="E3" s="6">
+        <v>782</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2616077</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2951</v>
+      </c>
+      <c r="K3" s="6">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6">
+        <v>20265</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9444327</v>
+      </c>
+      <c r="D4" s="6">
+        <v>121233</v>
+      </c>
+      <c r="E4" s="6">
+        <v>840</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2388772</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2905</v>
+      </c>
+      <c r="K4" s="6">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6">
+        <v>20851</v>
+      </c>
+      <c r="C5" s="6">
+        <v>9358026</v>
+      </c>
+      <c r="D5" s="6">
+        <v>112379</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3263</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2160543</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2760</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="6">
+        <v>380</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8817962</v>
+      </c>
+      <c r="D6" s="6">
+        <v>126296</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2505778</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I6" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2085</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6">
+        <v>960</v>
+      </c>
+      <c r="C7" s="6">
+        <v>8788774</v>
+      </c>
+      <c r="D7" s="6">
+        <v>119557</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2437</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2339832</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2335</v>
+      </c>
+      <c r="K7" s="6">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6">
+        <v>32933</v>
+      </c>
+      <c r="C8" s="6">
+        <v>8489908</v>
+      </c>
+      <c r="D8" s="6">
+        <v>103717</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5882</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2068701</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J8" s="6">
+        <v>2412</v>
+      </c>
+      <c r="K8" s="6">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="6">
+        <v>17443</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8165243</v>
+      </c>
+      <c r="D9" s="6">
+        <v>104045</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2974</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2051781</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2229</v>
+      </c>
+      <c r="K9" s="6">
+        <v>2084536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6">
+        <v>17275</v>
+      </c>
+      <c r="C10" s="6">
+        <v>8038887</v>
+      </c>
+      <c r="D10" s="6">
+        <v>94892</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2638</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1900745</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="6">
+        <v>49690</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2201</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2187496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6">
+        <v>66</v>
+      </c>
+      <c r="C11" s="6">
+        <v>8005559</v>
+      </c>
+      <c r="D11" s="6">
+        <v>101695</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1665</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2053909</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2584</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1816863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6">
+        <v>15458</v>
+      </c>
+      <c r="C12" s="6">
+        <v>7932676</v>
+      </c>
+      <c r="D12" s="6">
+        <v>66553</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1932</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1263999</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2486</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2196406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6">
+        <v>25824</v>
+      </c>
+      <c r="C13" s="6">
+        <v>7842850</v>
+      </c>
+      <c r="D13" s="6">
+        <v>100959</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2513</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1998674</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2036</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1970101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="6">
+        <v>17934</v>
+      </c>
+      <c r="C14" s="6">
+        <v>7842617</v>
+      </c>
+      <c r="D14" s="6">
+        <v>99673</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1690</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1973105</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J14" s="6">
+        <v>2162</v>
+      </c>
+      <c r="K14" s="6">
+        <v>2126206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="6">
+        <v>22260</v>
+      </c>
+      <c r="C15" s="6">
+        <v>7726379</v>
+      </c>
+      <c r="D15" s="6">
+        <v>81626</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1800</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1585674</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2642</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1714344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6">
+        <v>59362</v>
+      </c>
+      <c r="C16" s="6">
+        <v>7671880</v>
+      </c>
+      <c r="D16" s="6">
+        <v>85376</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1807</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1742195</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J16" s="6">
+        <v>2018</v>
+      </c>
+      <c r="K16" s="6">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="6">
+        <v>81910</v>
+      </c>
+      <c r="C17" s="6">
+        <v>7668249</v>
+      </c>
+      <c r="D17" s="6">
+        <v>49082</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1737</v>
+      </c>
+      <c r="F17" s="6">
+        <v>943374</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2259</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="6">
+        <v>8833</v>
+      </c>
+      <c r="C18" s="6">
+        <v>7504585</v>
+      </c>
+      <c r="D18" s="6">
+        <v>61363</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3454</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1187166</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J18" s="6">
+        <v>2052</v>
+      </c>
+      <c r="K18" s="6">
+        <v>2189116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="6">
+        <v>14624</v>
+      </c>
+      <c r="C19" s="6">
+        <v>7393859</v>
+      </c>
+      <c r="D19" s="6">
+        <v>64256</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1387</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1265091</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J19" s="6">
+        <v>2346</v>
+      </c>
+      <c r="K19" s="6">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="6">
+        <v>9848</v>
+      </c>
+      <c r="C20" s="6">
+        <v>7388143</v>
+      </c>
+      <c r="D20" s="6">
+        <v>82571</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1680</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1409945</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J20" s="6">
+        <v>2004</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1978201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="6">
+        <v>18257</v>
+      </c>
+      <c r="C21" s="6">
+        <v>7365310</v>
+      </c>
+      <c r="D21" s="6">
+        <v>65444</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1496</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1310852</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J21" s="6">
+        <v>2880</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1510462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="6">
+        <v>11386</v>
+      </c>
+      <c r="C22" s="6">
+        <v>7357390</v>
+      </c>
+      <c r="D22" s="6">
+        <v>88057</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2154</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1705292</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J22" s="6">
+        <v>2091</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1884768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="6">
+        <v>3217</v>
+      </c>
+      <c r="C23" s="6">
+        <v>7305512</v>
+      </c>
+      <c r="D23" s="6">
+        <v>117060</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1678</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2241069</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I23" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1896</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1846293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="6">
+        <v>648</v>
+      </c>
+      <c r="C24" s="6">
+        <v>7286240</v>
+      </c>
+      <c r="D24" s="6">
+        <v>79484</v>
+      </c>
+      <c r="E24" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1600202</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I24" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J24" s="6">
+        <v>2500</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1411156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" s="6">
+        <v>38</v>
+      </c>
+      <c r="C25" s="6">
+        <v>7084902</v>
+      </c>
+      <c r="D25" s="6">
+        <v>50083</v>
+      </c>
+      <c r="E25" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>797010</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I25" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J25" s="6">
+        <v>2520</v>
+      </c>
+      <c r="K25" s="6">
+        <v>2002501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="6">
+        <v>15930</v>
+      </c>
+      <c r="C26" s="6">
+        <v>6981422</v>
+      </c>
+      <c r="D26" s="6">
+        <v>51739</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1587</v>
+      </c>
+      <c r="F26" s="6">
+        <v>992415</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J26" s="6">
+        <v>2095</v>
+      </c>
+      <c r="K26" s="6">
+        <v>2138356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2326</v>
+      </c>
+      <c r="C27" s="6">
+        <v>6869399</v>
+      </c>
+      <c r="D27" s="6">
+        <v>94213</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2087</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1877839</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1980</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1429408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="6">
+        <v>13556</v>
+      </c>
+      <c r="C28" s="6">
+        <v>6844386</v>
+      </c>
+      <c r="D28" s="6">
+        <v>60186</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1333</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1168053</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J28" s="6">
+        <v>2250</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1762761</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="6">
+        <v>31810</v>
+      </c>
+      <c r="C29" s="6">
+        <v>6811436</v>
+      </c>
+      <c r="D29" s="6">
+        <v>68494</v>
+      </c>
+      <c r="E29" s="6">
+        <v>2315</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1275979</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J29" s="6">
+        <v>2256</v>
+      </c>
+      <c r="K29" s="6">
+        <v>1444933</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="6">
+        <v>172</v>
+      </c>
+      <c r="C30" s="6">
+        <v>6680750</v>
+      </c>
+      <c r="D30" s="6">
+        <v>53189</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1394</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1108438</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J30" s="6">
+        <v>2551</v>
+      </c>
+      <c r="K30" s="6">
+        <v>1349400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="6">
+        <v>7904</v>
+      </c>
+      <c r="C31" s="6">
+        <v>6643159</v>
+      </c>
+      <c r="D31" s="6">
+        <v>71118</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1642</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1374319</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J31" s="6">
+        <v>2010</v>
+      </c>
+      <c r="K31" s="6">
+        <v>1412074</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="6">
+        <v>25499</v>
+      </c>
+      <c r="C32" s="6">
+        <v>6619594</v>
+      </c>
+      <c r="D32" s="6">
+        <v>48819</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1380</v>
+      </c>
+      <c r="F32" s="6">
+        <v>908446</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J32" s="6">
+        <v>2245</v>
+      </c>
+      <c r="K32" s="6">
+        <v>1834102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="6">
+        <v>25812</v>
+      </c>
+      <c r="C33" s="6">
+        <v>6617129</v>
+      </c>
+      <c r="D33" s="6">
+        <v>82622</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2062</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1630644</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1898</v>
+      </c>
+      <c r="K33" s="6">
+        <v>1409914</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" s="6">
+        <v>8821</v>
+      </c>
+      <c r="C34" s="6">
+        <v>6602778</v>
+      </c>
+      <c r="D34" s="6">
+        <v>41902</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1710</v>
+      </c>
+      <c r="F34" s="6">
+        <v>843694</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I34" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J34" s="6">
+        <v>2445</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1884241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="6">
+        <v>8839</v>
+      </c>
+      <c r="C35" s="6">
+        <v>6582949</v>
+      </c>
+      <c r="D35" s="6">
+        <v>53417</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1243</v>
+      </c>
+      <c r="F35" s="6">
+        <v>954901</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I35" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J35" s="6">
+        <v>2590</v>
+      </c>
+      <c r="K35" s="6">
+        <v>1426816</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="6">
+        <v>574</v>
+      </c>
+      <c r="C36" s="6">
+        <v>6571455</v>
+      </c>
+      <c r="D36" s="6">
+        <v>75086</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1638</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1443860</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J36" s="6">
+        <v>1646</v>
+      </c>
+      <c r="K36" s="6">
+        <v>1736281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" s="6">
+        <v>41</v>
+      </c>
+      <c r="C37" s="6">
+        <v>6570043</v>
+      </c>
+      <c r="D37" s="6">
+        <v>60178</v>
+      </c>
+      <c r="E37" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1141688</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J37" s="6">
+        <v>2154</v>
+      </c>
+      <c r="K37" s="6">
+        <v>1458703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1980</v>
+      </c>
+      <c r="C38" s="6">
+        <v>6570024</v>
+      </c>
+      <c r="D38" s="6">
+        <v>63975</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1960</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1235943</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J38" s="6">
+        <v>2150</v>
+      </c>
+      <c r="K38" s="6">
+        <v>1545832</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39" s="6">
+        <v>27956</v>
+      </c>
+      <c r="C39" s="6">
+        <v>6569862</v>
+      </c>
+      <c r="D39" s="6">
+        <v>78185</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1960</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1550540</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J39" s="6">
+        <v>2020</v>
+      </c>
+      <c r="K39" s="6">
+        <v>1456413</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="6">
+        <v>40128</v>
+      </c>
+      <c r="C40" s="6">
+        <v>6558475</v>
+      </c>
+      <c r="D40" s="6">
+        <v>57493</v>
+      </c>
+      <c r="E40" s="6">
+        <v>3214</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1121594</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J40" s="6">
+        <v>2010</v>
+      </c>
+      <c r="K40" s="6">
+        <v>1781101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="6">
+        <v>13332</v>
+      </c>
+      <c r="C41" s="6">
+        <v>6534956</v>
+      </c>
+      <c r="D41" s="6">
+        <v>46299</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1600</v>
+      </c>
+      <c r="F41" s="6">
+        <v>926664</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I41" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J41" s="6">
+        <v>2435</v>
+      </c>
+      <c r="K41" s="6">
+        <v>1475146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="6">
+        <v>29600</v>
+      </c>
+      <c r="C42" s="6">
+        <v>6529094</v>
+      </c>
+      <c r="D42" s="6">
+        <v>51823</v>
+      </c>
+      <c r="E42" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1013797</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I42" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J42" s="6">
+        <v>2484</v>
+      </c>
+      <c r="K42" s="6">
+        <v>1427950</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="6">
+        <v>853</v>
+      </c>
+      <c r="C43" s="6">
+        <v>6526621</v>
+      </c>
+      <c r="D43" s="6">
+        <v>88609</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1285</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1729871</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J43" s="6">
+        <v>2070</v>
+      </c>
+      <c r="K43" s="6">
+        <v>1311580</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="6">
+        <v>35080</v>
+      </c>
+      <c r="C44" s="6">
+        <v>6470999</v>
+      </c>
+      <c r="D44" s="6">
+        <v>73766</v>
+      </c>
+      <c r="E44" s="6">
+        <v>2136</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1297768</v>
+      </c>
+      <c r="G44" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I44" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J44" s="6">
+        <v>2130</v>
+      </c>
+      <c r="K44" s="6">
+        <v>1402287</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" s="6">
+        <v>32886</v>
+      </c>
+      <c r="C45" s="6">
+        <v>6397110</v>
+      </c>
+      <c r="D45" s="6">
+        <v>78640</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1371</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1355876</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J45" s="6">
+        <v>2008</v>
+      </c>
+      <c r="K45" s="6">
+        <v>1512082</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="6">
+        <v>7679</v>
+      </c>
+      <c r="C46" s="6">
+        <v>6395886</v>
+      </c>
+      <c r="D46" s="6">
+        <v>47290</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1530</v>
+      </c>
+      <c r="F46" s="6">
+        <v>860676</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J46" s="6">
+        <v>2025</v>
+      </c>
+      <c r="K46" s="6">
+        <v>1583589</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="6">
+        <v>3966</v>
+      </c>
+      <c r="C47" s="6">
+        <v>6370256</v>
+      </c>
+      <c r="D47" s="6">
+        <v>44532</v>
+      </c>
+      <c r="E47" s="6">
+        <v>2250</v>
+      </c>
+      <c r="F47" s="6">
+        <v>854064</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I47" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J47" s="6">
+        <v>2121</v>
+      </c>
+      <c r="K47" s="6">
+        <v>1878895</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="6">
+        <v>26293</v>
+      </c>
+      <c r="C48" s="6">
+        <v>6357500</v>
+      </c>
+      <c r="D48" s="6">
+        <v>50561</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1205</v>
+      </c>
+      <c r="F48" s="6">
+        <v>911163</v>
+      </c>
+      <c r="G48" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I48" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J48" s="6">
+        <v>2122</v>
+      </c>
+      <c r="K48" s="6">
+        <v>1415719</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" s="6">
+        <v>16580</v>
+      </c>
+      <c r="C49" s="6">
+        <v>6353923</v>
+      </c>
+      <c r="D49" s="6">
+        <v>73507</v>
+      </c>
+      <c r="E49" s="6">
+        <v>2156</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1495367</v>
+      </c>
+      <c r="G49" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I49" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J49" s="6">
+        <v>1877</v>
+      </c>
+      <c r="K49" s="6">
+        <v>1223373</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="6">
+        <v>22867</v>
+      </c>
+      <c r="C50" s="6">
+        <v>6347904</v>
+      </c>
+      <c r="D50" s="6">
+        <v>48300</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1385</v>
+      </c>
+      <c r="F50" s="6">
+        <v>941128</v>
+      </c>
+      <c r="G50" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I50" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J50" s="6">
+        <v>2202</v>
+      </c>
+      <c r="K50" s="6">
+        <v>1325935</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="6">
+        <v>6820</v>
+      </c>
+      <c r="C51" s="6">
+        <v>6344592</v>
+      </c>
+      <c r="D51" s="6">
+        <v>45522</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1629</v>
+      </c>
+      <c r="F51" s="6">
+        <v>926940</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I51" s="6">
+        <v>49490</v>
+      </c>
+      <c r="J51" s="6">
+        <v>2419</v>
+      </c>
+      <c r="K51" s="6">
+        <v>1218165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="6">
+        <v>818</v>
+      </c>
+      <c r="C52" s="6">
+        <v>6323936</v>
+      </c>
+      <c r="D52" s="6">
+        <v>53234</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1783</v>
+      </c>
+      <c r="F52" s="6">
+        <v>1026240</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I52" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J52" s="6">
+        <v>2213</v>
+      </c>
+      <c r="K52" s="6">
+        <v>1398574</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B53" s="6">
+        <v>3241</v>
+      </c>
+      <c r="C53" s="6">
+        <v>6322431</v>
+      </c>
+      <c r="D53" s="6">
+        <v>51705</v>
+      </c>
+      <c r="E53" s="6">
+        <v>1508</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1010767</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I53" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J53" s="6">
+        <v>2201</v>
+      </c>
+      <c r="K53" s="6">
+        <v>1388566</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="6">
+        <v>1941</v>
+      </c>
+      <c r="C54" s="6">
+        <v>6314588</v>
+      </c>
+      <c r="D54" s="6">
+        <v>53416</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1553</v>
+      </c>
+      <c r="F54" s="6">
+        <v>1043744</v>
+      </c>
+      <c r="G54" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I54" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J54" s="6">
+        <v>1834</v>
+      </c>
+      <c r="K54" s="6">
+        <v>1614637</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="6">
+        <v>27113</v>
+      </c>
+      <c r="C55" s="6">
+        <v>6266377</v>
+      </c>
+      <c r="D55" s="6">
+        <v>53739</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1538</v>
+      </c>
+      <c r="F55" s="6">
+        <v>982486</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I55" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J55" s="6">
+        <v>2384</v>
+      </c>
+      <c r="K55" s="6">
+        <v>1375300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B56" s="6">
+        <v>162</v>
+      </c>
+      <c r="C56" s="6">
+        <v>6260357</v>
+      </c>
+      <c r="D56" s="6">
+        <v>44703</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1405</v>
+      </c>
+      <c r="F56" s="6">
+        <v>867520</v>
+      </c>
+      <c r="G56" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I56" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J56" s="6">
+        <v>2424</v>
+      </c>
+      <c r="K56" s="6">
+        <v>1310091</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="6">
+        <v>9356</v>
+      </c>
+      <c r="C57" s="6">
+        <v>6246645</v>
+      </c>
+      <c r="D57" s="6">
+        <v>62023</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1402</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1236017</v>
+      </c>
+      <c r="G57" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I57" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J57" s="6">
+        <v>1886</v>
+      </c>
+      <c r="K57" s="6">
+        <v>1516942</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="6">
+        <v>19278</v>
+      </c>
+      <c r="C58" s="6">
+        <v>6195217</v>
+      </c>
+      <c r="D58" s="6">
+        <v>35417</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="6">
+        <v>690538</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I58" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J58" s="6">
+        <v>2253</v>
+      </c>
+      <c r="K58" s="6">
+        <v>1601295</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="6">
+        <v>1021</v>
+      </c>
+      <c r="C59" s="6">
+        <v>6149692</v>
+      </c>
+      <c r="D59" s="6">
+        <v>54019</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1786</v>
+      </c>
+      <c r="F59" s="6">
+        <v>1126065</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I59" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J59" s="6">
+        <v>1833</v>
+      </c>
+      <c r="K59" s="6">
+        <v>1499973</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="6">
+        <v>14924</v>
+      </c>
+      <c r="C60" s="6">
+        <v>6135276</v>
+      </c>
+      <c r="D60" s="6">
+        <v>47976</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1623</v>
+      </c>
+      <c r="F60" s="6">
+        <v>916178</v>
+      </c>
+      <c r="G60" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I60" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J60" s="6">
+        <v>2331</v>
+      </c>
+      <c r="K60" s="6">
+        <v>1233255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="6">
+        <v>420</v>
+      </c>
+      <c r="C61" s="6">
+        <v>6117889</v>
+      </c>
+      <c r="D61" s="6">
+        <v>48642</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1186</v>
+      </c>
+      <c r="F61" s="6">
+        <v>934667</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I61" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J61" s="6">
+        <v>2019</v>
+      </c>
+      <c r="K61" s="6">
+        <v>1327890</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="6">
+        <v>993</v>
+      </c>
+      <c r="C62" s="6">
+        <v>6113661</v>
+      </c>
+      <c r="D62" s="6">
+        <v>56552</v>
+      </c>
+      <c r="E62" s="6">
+        <v>1536</v>
+      </c>
+      <c r="F62" s="6">
+        <v>1111185</v>
+      </c>
+      <c r="G62" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I62" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J62" s="6">
+        <v>1890</v>
+      </c>
+      <c r="K62" s="6">
+        <v>1431904</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="6">
+        <v>27270</v>
+      </c>
+      <c r="C63" s="6">
+        <v>6087554</v>
+      </c>
+      <c r="D63" s="6">
+        <v>48555</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1608</v>
+      </c>
+      <c r="F63" s="6">
+        <v>903455</v>
+      </c>
+      <c r="G63" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I63" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J63" s="6">
+        <v>1763</v>
+      </c>
+      <c r="K63" s="6">
+        <v>1422172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B64" s="6">
+        <v>73370</v>
+      </c>
+      <c r="C64" s="6">
+        <v>6085376</v>
+      </c>
+      <c r="D64" s="6">
+        <v>46117</v>
+      </c>
+      <c r="E64" s="6">
+        <v>5922</v>
+      </c>
+      <c r="F64" s="6">
+        <v>918689</v>
+      </c>
+      <c r="G64" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I64" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J64" s="6">
+        <v>1721</v>
+      </c>
+      <c r="K64" s="6">
+        <v>2145376</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="6">
+        <v>1809</v>
+      </c>
+      <c r="C65" s="6">
+        <v>6077840</v>
+      </c>
+      <c r="D65" s="6">
+        <v>46637</v>
+      </c>
+      <c r="E65" s="6">
+        <v>1337</v>
+      </c>
+      <c r="F65" s="6">
+        <v>882133</v>
+      </c>
+      <c r="G65" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I65" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J65" s="6">
+        <v>2011</v>
+      </c>
+      <c r="K65" s="6">
+        <v>1438372</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B66" s="6">
+        <v>10101</v>
+      </c>
+      <c r="C66" s="6">
+        <v>6060683</v>
+      </c>
+      <c r="D66" s="6">
+        <v>50329</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1820</v>
+      </c>
+      <c r="F66" s="6">
+        <v>1073502</v>
+      </c>
+      <c r="G66" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I66" s="6">
+        <v>45780</v>
+      </c>
+      <c r="J66" s="6">
+        <v>1544</v>
+      </c>
+      <c r="K66" s="6">
+        <v>1456300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="6">
+        <v>304</v>
+      </c>
+      <c r="C67" s="6">
+        <v>6049210</v>
+      </c>
+      <c r="D67" s="6">
+        <v>54697</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1462</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1131099</v>
+      </c>
+      <c r="G67" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I67" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J67" s="6">
+        <v>1788</v>
+      </c>
+      <c r="K67" s="6">
+        <v>1279502</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="6">
+        <v>12727</v>
+      </c>
+      <c r="C68" s="6">
+        <v>6043233</v>
+      </c>
+      <c r="D68" s="6">
+        <v>53881</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1479</v>
+      </c>
+      <c r="F68" s="6">
+        <v>999812</v>
+      </c>
+      <c r="G68" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I68" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J68" s="6">
+        <v>1663</v>
+      </c>
+      <c r="K68" s="6">
+        <v>1645113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="6">
+        <v>1134</v>
+      </c>
+      <c r="C69" s="6">
+        <v>6036885</v>
+      </c>
+      <c r="D69" s="6">
+        <v>49217</v>
+      </c>
+      <c r="E69" s="6">
+        <v>1295</v>
+      </c>
+      <c r="F69" s="6">
+        <v>963671</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I69" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J69" s="6">
+        <v>1732</v>
+      </c>
+      <c r="K69" s="6">
+        <v>1389772</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="6">
+        <v>7219</v>
+      </c>
+      <c r="C70" s="6">
+        <v>6033073</v>
+      </c>
+      <c r="D70" s="6">
+        <v>36807</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1171</v>
+      </c>
+      <c r="F70" s="6">
+        <v>676089</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1685</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I70" s="6">
+        <v>49880</v>
+      </c>
+      <c r="J70" s="6">
+        <v>2047</v>
+      </c>
+      <c r="K70" s="6">
+        <v>1621578</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="6">
+        <v>23524</v>
+      </c>
+      <c r="C71" s="6">
+        <v>6019305</v>
+      </c>
+      <c r="D71" s="6">
+        <v>47995</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1247</v>
+      </c>
+      <c r="F71" s="6">
+        <v>890764</v>
+      </c>
+      <c r="G71" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I71" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J71" s="6">
+        <v>2068</v>
+      </c>
+      <c r="K71" s="6">
+        <v>1291146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="6">
+        <v>13166</v>
+      </c>
+      <c r="C72" s="6">
+        <v>6015935</v>
+      </c>
+      <c r="D72" s="6">
+        <v>48175</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1232</v>
+      </c>
+      <c r="F72" s="6">
+        <v>944630</v>
+      </c>
+      <c r="G72" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I72" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J72" s="6">
+        <v>2066</v>
+      </c>
+      <c r="K72" s="6">
+        <v>1334739</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="6">
+        <v>11010</v>
+      </c>
+      <c r="C73" s="6">
+        <v>5971162</v>
+      </c>
+      <c r="D73" s="6">
+        <v>40029</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1684</v>
+      </c>
+      <c r="F73" s="6">
+        <v>788624</v>
+      </c>
+      <c r="G73" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I73" s="6">
+        <v>48610</v>
+      </c>
+      <c r="J73" s="6">
+        <v>2279</v>
+      </c>
+      <c r="K73" s="6">
+        <v>1254106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="6">
+        <v>6826</v>
+      </c>
+      <c r="C74" s="6">
+        <v>5951955</v>
+      </c>
+      <c r="D74" s="6">
+        <v>54250</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1513</v>
+      </c>
+      <c r="F74" s="6">
+        <v>1074193</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I74" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J74" s="6">
+        <v>1926</v>
+      </c>
+      <c r="K74" s="6">
+        <v>1342353</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="6">
+        <v>956</v>
+      </c>
+      <c r="C75" s="6">
+        <v>5918298</v>
+      </c>
+      <c r="D75" s="6">
+        <v>47332</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1530</v>
+      </c>
+      <c r="F75" s="6">
+        <v>972225</v>
+      </c>
+      <c r="G75" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I75" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J75" s="6">
+        <v>1801</v>
+      </c>
+      <c r="K75" s="6">
+        <v>1228803</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="6">
+        <v>52492</v>
+      </c>
+      <c r="C76" s="6">
+        <v>5900801</v>
+      </c>
+      <c r="D76" s="6">
+        <v>26803</v>
+      </c>
+      <c r="E76" s="6">
+        <v>1319</v>
+      </c>
+      <c r="F76" s="6">
+        <v>549367</v>
+      </c>
+      <c r="G76" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I76" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J76" s="6">
+        <v>1968</v>
+      </c>
+      <c r="K76" s="6">
+        <v>1718317</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="6">
+        <v>30847</v>
+      </c>
+      <c r="C77" s="6">
+        <v>5894514</v>
+      </c>
+      <c r="D77" s="6">
+        <v>54892</v>
+      </c>
+      <c r="E77" s="6">
+        <v>1226</v>
+      </c>
+      <c r="F77" s="6">
+        <v>1090466</v>
+      </c>
+      <c r="G77" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I77" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J77" s="6">
+        <v>2069</v>
+      </c>
+      <c r="K77" s="6">
+        <v>1277205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" s="6">
+        <v>1032</v>
+      </c>
+      <c r="C78" s="6">
+        <v>5829264</v>
+      </c>
+      <c r="D78" s="6">
+        <v>46136</v>
+      </c>
+      <c r="E78" s="6">
+        <v>1278</v>
+      </c>
+      <c r="F78" s="6">
+        <v>946626</v>
+      </c>
+      <c r="G78" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I78" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J78" s="6">
+        <v>1789</v>
+      </c>
+      <c r="K78" s="6">
+        <v>1250187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" s="6">
+        <v>13797</v>
+      </c>
+      <c r="C79" s="6">
+        <v>5773831</v>
+      </c>
+      <c r="D79" s="6">
+        <v>34944</v>
+      </c>
+      <c r="E79" s="6">
+        <v>1271</v>
+      </c>
+      <c r="F79" s="6">
+        <v>696920</v>
+      </c>
+      <c r="G79" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I79" s="6">
+        <v>49690</v>
+      </c>
+      <c r="J79" s="6">
+        <v>2020</v>
+      </c>
+      <c r="K79" s="6">
+        <v>1303710</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" s="6">
+        <v>12259</v>
+      </c>
+      <c r="C80" s="6">
+        <v>5770473</v>
+      </c>
+      <c r="D80" s="6">
+        <v>46928</v>
+      </c>
+      <c r="E80" s="6">
+        <v>1846</v>
+      </c>
+      <c r="F80" s="6">
+        <v>952260</v>
+      </c>
+      <c r="G80" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I80" s="6">
+        <v>48140</v>
+      </c>
+      <c r="J80" s="6">
+        <v>1888</v>
+      </c>
+      <c r="K80" s="6">
+        <v>1183440</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" s="6">
+        <v>27230</v>
+      </c>
+      <c r="C81" s="6">
+        <v>5724321</v>
+      </c>
+      <c r="D81" s="6">
+        <v>42997</v>
+      </c>
+      <c r="E81" s="6">
+        <v>1309</v>
+      </c>
+      <c r="F81" s="6">
+        <v>854706</v>
+      </c>
+      <c r="G81" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I81" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J81" s="6">
+        <v>1828</v>
+      </c>
+      <c r="K81" s="6">
+        <v>1385290</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B82" s="6">
+        <v>12081</v>
+      </c>
+      <c r="C82" s="6">
+        <v>5706947</v>
+      </c>
+      <c r="D82" s="6">
+        <v>29367</v>
+      </c>
+      <c r="E82" s="6">
+        <v>1388</v>
+      </c>
+      <c r="F82" s="6">
+        <v>576396</v>
+      </c>
+      <c r="G82" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I82" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J82" s="6">
+        <v>2086</v>
+      </c>
+      <c r="K82" s="6">
+        <v>1398682</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83" s="6">
+        <v>50373</v>
+      </c>
+      <c r="C83" s="6">
+        <v>5694579</v>
+      </c>
+      <c r="D83" s="6">
+        <v>46713</v>
+      </c>
+      <c r="E83" s="6">
+        <v>1791</v>
+      </c>
+      <c r="F83" s="6">
+        <v>946639</v>
+      </c>
+      <c r="G83" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I83" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J83" s="6">
+        <v>1886</v>
+      </c>
+      <c r="K83" s="6">
+        <v>1203015</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" s="6">
+        <v>15046</v>
+      </c>
+      <c r="C84" s="6">
+        <v>5686140</v>
+      </c>
+      <c r="D84" s="6">
+        <v>48944</v>
+      </c>
+      <c r="E84" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F84" s="6">
+        <v>875470</v>
+      </c>
+      <c r="G84" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I84" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J84" s="6">
+        <v>1756</v>
+      </c>
+      <c r="K84" s="6">
+        <v>1411210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" s="6">
+        <v>28663</v>
+      </c>
+      <c r="C85" s="6">
+        <v>5647971</v>
+      </c>
+      <c r="D85" s="6">
+        <v>49136</v>
+      </c>
+      <c r="E85" s="6">
+        <v>1244</v>
+      </c>
+      <c r="F85" s="6">
+        <v>917217</v>
+      </c>
+      <c r="G85" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I85" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J85" s="6">
+        <v>1893</v>
+      </c>
+      <c r="K85" s="6">
+        <v>1280803</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C86" s="6">
+        <v>5628429</v>
+      </c>
+      <c r="D86" s="6">
+        <v>41899</v>
+      </c>
+      <c r="E86" s="6">
+        <v>1245</v>
+      </c>
+      <c r="F86" s="6">
+        <v>751081</v>
+      </c>
+      <c r="G86" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I86" s="6">
+        <v>49690</v>
+      </c>
+      <c r="J86" s="6">
+        <v>1915</v>
+      </c>
+      <c r="K86" s="6">
+        <v>1198790</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" s="6">
+        <v>55539</v>
+      </c>
+      <c r="C87" s="6">
+        <v>5582554</v>
+      </c>
+      <c r="D87" s="6">
+        <v>35596</v>
+      </c>
+      <c r="E87" s="6">
+        <v>1507</v>
+      </c>
+      <c r="F87" s="6">
+        <v>726960</v>
+      </c>
+      <c r="G87" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I87" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J87" s="6">
+        <v>1909</v>
+      </c>
+      <c r="K87" s="6">
+        <v>1289314</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="6">
+        <v>58190</v>
+      </c>
+      <c r="C88" s="6">
+        <v>5545146</v>
+      </c>
+      <c r="D88" s="6">
+        <v>45738</v>
+      </c>
+      <c r="E88" s="6">
+        <v>1818</v>
+      </c>
+      <c r="F88" s="6">
+        <v>905306</v>
+      </c>
+      <c r="G88" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I88" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J88" s="6">
+        <v>1904</v>
+      </c>
+      <c r="K88" s="6">
+        <v>1395285</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" s="6">
+        <v>36320</v>
+      </c>
+      <c r="C89" s="6">
+        <v>5425889</v>
+      </c>
+      <c r="D89" s="6">
+        <v>24438</v>
+      </c>
+      <c r="E89" s="6">
+        <v>1372</v>
+      </c>
+      <c r="F89" s="6">
+        <v>471687</v>
+      </c>
+      <c r="G89" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I89" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J89" s="6">
+        <v>1695</v>
+      </c>
+      <c r="K89" s="6">
+        <v>1726899</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B90" s="6">
+        <v>35397</v>
+      </c>
+      <c r="C90" s="6">
+        <v>5407578</v>
+      </c>
+      <c r="D90" s="6">
+        <v>35489</v>
+      </c>
+      <c r="E90" s="6">
+        <v>4081</v>
+      </c>
+      <c r="F90" s="6">
+        <v>695422</v>
+      </c>
+      <c r="G90" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I90" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J90" s="6">
+        <v>1713</v>
+      </c>
+      <c r="K90" s="6">
+        <v>1421164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" s="6">
+        <v>12748</v>
+      </c>
+      <c r="C91" s="6">
+        <v>5373419</v>
+      </c>
+      <c r="D91" s="6">
+        <v>26380</v>
+      </c>
+      <c r="E91" s="6">
+        <v>1359</v>
+      </c>
+      <c r="F91" s="6">
+        <v>514965</v>
+      </c>
+      <c r="G91" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I91" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J91" s="6">
+        <v>1817</v>
+      </c>
+      <c r="K91" s="6">
+        <v>1448362</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52857027-8390-C442-8A8F-6D3A1C67E556}">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -4409,10 +7654,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4420,7 +7665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE93BAE1-D23A-6849-9302-F85A760502DA}">
   <dimension ref="A1:K91"/>
   <sheetViews>
@@ -7625,10 +10870,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>900</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7637,7 +10882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J91"/>
   <sheetViews>
@@ -10567,17 +13812,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D38C792-EAA2-8B42-B0E7-F48EFA899741}">
   <dimension ref="A1:J84"/>
   <sheetViews>
@@ -13282,13 +16527,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D719624A-6405-5B44-9B87-298789B90485}">
   <dimension ref="A1:E91"/>
   <sheetViews>
@@ -14852,7 +18097,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A91">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/work/数据统计/Aster统计.xlsx
+++ b/work/数据统计/Aster统计.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangguangyunshi/catchDatas/work/数据统计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71EBF41-40D9-3145-8882-A4A2F8EBE21B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7358865-8720-5447-A6B7-EBC1488F75BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="760" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="20191013" sheetId="6" r:id="rId1"/>
-    <sheet name="20190922" sheetId="5" r:id="rId2"/>
-    <sheet name="20190916" sheetId="2" r:id="rId3"/>
-    <sheet name="20190901" sheetId="1" r:id="rId4"/>
-    <sheet name="20190825" sheetId="3" r:id="rId5"/>
-    <sheet name="数据勿删" sheetId="4" r:id="rId6"/>
+    <sheet name="20191027" sheetId="7" r:id="rId1"/>
+    <sheet name="20191013" sheetId="6" r:id="rId2"/>
+    <sheet name="20190922" sheetId="5" r:id="rId3"/>
+    <sheet name="20190916" sheetId="2" r:id="rId4"/>
+    <sheet name="20190901" sheetId="1" r:id="rId5"/>
+    <sheet name="20190825" sheetId="3" r:id="rId6"/>
+    <sheet name="数据勿删" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20190901'!$A$1:$A$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20190901'!$A$1:$A$91</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="261">
   <si>
     <t>昵称</t>
   </si>
@@ -828,6 +829,24 @@
   </si>
   <si>
     <t>9RN86J4K86DA</t>
+  </si>
+  <si>
+    <t>nickName</t>
+  </si>
+  <si>
+    <t>mopUp</t>
+  </si>
+  <si>
+    <t>哈阿桂</t>
+  </si>
+  <si>
+    <t>95EATD4S84MS</t>
+  </si>
+  <si>
+    <t>jess丶</t>
+  </si>
+  <si>
+    <t>9QZ7UZ43J7N3</t>
   </si>
 </sst>
 </file>
@@ -890,7 +909,37 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1315,11 +1364,3156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8B7774-A3E8-CB4B-8F5F-89C1480B1677}">
+  <dimension ref="A1:K89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6">
+        <v>21542</v>
+      </c>
+      <c r="C2" s="6">
+        <v>10306951</v>
+      </c>
+      <c r="D2" s="6">
+        <v>147650</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3956</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2872315</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J2" s="6">
+        <v>2405</v>
+      </c>
+      <c r="K2" s="6">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1229</v>
+      </c>
+      <c r="C3" s="6">
+        <v>9719699</v>
+      </c>
+      <c r="D3" s="6">
+        <v>130660</v>
+      </c>
+      <c r="E3" s="6">
+        <v>640</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2629534</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2951</v>
+      </c>
+      <c r="K3" s="6">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6">
+        <v>20265</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9523505</v>
+      </c>
+      <c r="D4" s="6">
+        <v>121786</v>
+      </c>
+      <c r="E4" s="6">
+        <v>553</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2400864</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2905</v>
+      </c>
+      <c r="K4" s="6">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6">
+        <v>20851</v>
+      </c>
+      <c r="C5" s="6">
+        <v>9453437</v>
+      </c>
+      <c r="D5" s="6">
+        <v>114551</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2172</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2205082</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2760</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="6">
+        <v>380</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8924969</v>
+      </c>
+      <c r="D6" s="6">
+        <v>128672</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2376</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2554258</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I6" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2085</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6">
+        <v>960</v>
+      </c>
+      <c r="C7" s="6">
+        <v>8867872</v>
+      </c>
+      <c r="D7" s="6">
+        <v>121084</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1527</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2371652</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2335</v>
+      </c>
+      <c r="K7" s="6">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6">
+        <v>32933</v>
+      </c>
+      <c r="C8" s="6">
+        <v>8578327</v>
+      </c>
+      <c r="D8" s="6">
+        <v>107588</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3871</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2148624</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J8" s="6">
+        <v>2412</v>
+      </c>
+      <c r="K8" s="6">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="6">
+        <v>17443</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8428565</v>
+      </c>
+      <c r="D9" s="6">
+        <v>105714</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1669</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2086592</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2330</v>
+      </c>
+      <c r="K9" s="6">
+        <v>2121616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6">
+        <v>17275</v>
+      </c>
+      <c r="C10" s="6">
+        <v>8180146</v>
+      </c>
+      <c r="D10" s="6">
+        <v>96627</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1735</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1936814</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="6">
+        <v>49690</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2201</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2208556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6">
+        <v>66</v>
+      </c>
+      <c r="C11" s="6">
+        <v>8114358</v>
+      </c>
+      <c r="D11" s="6">
+        <v>102748</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1053</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2075032</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2584</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1855743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6">
+        <v>15458</v>
+      </c>
+      <c r="C12" s="6">
+        <v>8057251</v>
+      </c>
+      <c r="D12" s="6">
+        <v>67768</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1215</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1288230</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2486</v>
+      </c>
+      <c r="K12" s="6">
+        <v>2208556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="6">
+        <v>17934</v>
+      </c>
+      <c r="C13" s="6">
+        <v>8032941</v>
+      </c>
+      <c r="D13" s="6">
+        <v>100731</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1058</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1995092</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2162</v>
+      </c>
+      <c r="K13" s="6">
+        <v>2196406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6">
+        <v>25824</v>
+      </c>
+      <c r="C14" s="6">
+        <v>7968903</v>
+      </c>
+      <c r="D14" s="6">
+        <v>102732</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1773</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2035262</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J14" s="6">
+        <v>2036</v>
+      </c>
+      <c r="K14" s="6">
+        <v>2026801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="6">
+        <v>22260</v>
+      </c>
+      <c r="C15" s="6">
+        <v>7903559</v>
+      </c>
+      <c r="D15" s="6">
+        <v>82842</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1216</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1610179</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2642</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1767925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="6">
+        <v>81910</v>
+      </c>
+      <c r="C16" s="6">
+        <v>7817083</v>
+      </c>
+      <c r="D16" s="6">
+        <v>50320</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1238</v>
+      </c>
+      <c r="F16" s="6">
+        <v>964206</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J16" s="6">
+        <v>2259</v>
+      </c>
+      <c r="K16" s="6">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="6">
+        <v>59362</v>
+      </c>
+      <c r="C17" s="6">
+        <v>7790174</v>
+      </c>
+      <c r="D17" s="6">
+        <v>86584</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1208</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1766740</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2018</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="6">
+        <v>8833</v>
+      </c>
+      <c r="C18" s="6">
+        <v>7641640</v>
+      </c>
+      <c r="D18" s="6">
+        <v>62664</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1301</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1212478</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J18" s="6">
+        <v>2052</v>
+      </c>
+      <c r="K18" s="6">
+        <v>2208556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="6">
+        <v>9848</v>
+      </c>
+      <c r="C19" s="6">
+        <v>7632397</v>
+      </c>
+      <c r="D19" s="6">
+        <v>83961</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1390</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1438297</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J19" s="6">
+        <v>2004</v>
+      </c>
+      <c r="K19" s="6">
+        <v>2147716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="6">
+        <v>11386</v>
+      </c>
+      <c r="C20" s="6">
+        <v>7565474</v>
+      </c>
+      <c r="D20" s="6">
+        <v>90912</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2855</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1762634</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J20" s="6">
+        <v>2091</v>
+      </c>
+      <c r="K20" s="6">
+        <v>2008009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="6">
+        <v>14624</v>
+      </c>
+      <c r="C21" s="6">
+        <v>7544933</v>
+      </c>
+      <c r="D21" s="6">
+        <v>65208</v>
+      </c>
+      <c r="E21" s="6">
+        <v>952</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1284614</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J21" s="6">
+        <v>2346</v>
+      </c>
+      <c r="K21" s="6">
+        <v>2227996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="6">
+        <v>18257</v>
+      </c>
+      <c r="C22" s="6">
+        <v>7515269</v>
+      </c>
+      <c r="D22" s="6">
+        <v>66445</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1001</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1331688</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J22" s="6">
+        <v>2880</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1583902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="6">
+        <v>648</v>
+      </c>
+      <c r="C23" s="6">
+        <v>7387997</v>
+      </c>
+      <c r="D23" s="6">
+        <v>80802</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1318</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1626721</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I23" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J23" s="6">
+        <v>2500</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1453654</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B24" s="6">
+        <v>6556</v>
+      </c>
+      <c r="C24" s="6">
+        <v>7318476</v>
+      </c>
+      <c r="D24" s="6">
+        <v>89603</v>
+      </c>
+      <c r="E24" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1621259</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I24" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J24" s="6">
+        <v>2020</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1709065</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" s="6">
+        <v>38</v>
+      </c>
+      <c r="C25" s="6">
+        <v>7291343</v>
+      </c>
+      <c r="D25" s="6">
+        <v>51645</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1562</v>
+      </c>
+      <c r="F25" s="6">
+        <v>828981</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I25" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J25" s="6">
+        <v>2520</v>
+      </c>
+      <c r="K25" s="6">
+        <v>2147716</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="6">
+        <v>15930</v>
+      </c>
+      <c r="C26" s="6">
+        <v>7187575</v>
+      </c>
+      <c r="D26" s="6">
+        <v>53216</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1477</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1022034</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J26" s="6">
+        <v>2095</v>
+      </c>
+      <c r="K26" s="6">
+        <v>2208556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27" s="6">
+        <v>15610</v>
+      </c>
+      <c r="C27" s="6">
+        <v>7062032</v>
+      </c>
+      <c r="D27" s="6">
+        <v>89049</v>
+      </c>
+      <c r="E27" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1756311</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="I27" s="6">
+        <v>49980</v>
+      </c>
+      <c r="J27" s="6">
+        <v>2250</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1514566</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2326</v>
+      </c>
+      <c r="C28" s="6">
+        <v>7003189</v>
+      </c>
+      <c r="D28" s="6">
+        <v>95436</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1223</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1903072</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1980</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1493776</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="6">
+        <v>13556</v>
+      </c>
+      <c r="C29" s="6">
+        <v>6989245</v>
+      </c>
+      <c r="D29" s="6">
+        <v>61081</v>
+      </c>
+      <c r="E29" s="6">
+        <v>895</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1184273</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J29" s="6">
+        <v>2250</v>
+      </c>
+      <c r="K29" s="6">
+        <v>1762761</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="6">
+        <v>31810</v>
+      </c>
+      <c r="C30" s="6">
+        <v>6890819</v>
+      </c>
+      <c r="D30" s="6">
+        <v>70272</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1778</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1312655</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J30" s="6">
+        <v>2256</v>
+      </c>
+      <c r="K30" s="6">
+        <v>1481302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="6">
+        <v>172</v>
+      </c>
+      <c r="C31" s="6">
+        <v>6874136</v>
+      </c>
+      <c r="D31" s="6">
+        <v>54110</v>
+      </c>
+      <c r="E31" s="6">
+        <v>921</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1128779</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J31" s="6">
+        <v>2551</v>
+      </c>
+      <c r="K31" s="6">
+        <v>1398675</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" s="6">
+        <v>8821</v>
+      </c>
+      <c r="C32" s="6">
+        <v>6857398</v>
+      </c>
+      <c r="D32" s="6">
+        <v>43172</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1270</v>
+      </c>
+      <c r="F32" s="6">
+        <v>869858</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J32" s="6">
+        <v>2445</v>
+      </c>
+      <c r="K32" s="6">
+        <v>1987921</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="6">
+        <v>8839</v>
+      </c>
+      <c r="C33" s="6">
+        <v>6843669</v>
+      </c>
+      <c r="D33" s="6">
+        <v>54457</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1040</v>
+      </c>
+      <c r="F33" s="6">
+        <v>973055</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J33" s="6">
+        <v>2590</v>
+      </c>
+      <c r="K33" s="6">
+        <v>1601182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="6">
+        <v>40128</v>
+      </c>
+      <c r="C34" s="6">
+        <v>6828492</v>
+      </c>
+      <c r="D34" s="6">
+        <v>59665</v>
+      </c>
+      <c r="E34" s="6">
+        <v>2172</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1166508</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I34" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J34" s="6">
+        <v>2010</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1829701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="6">
+        <v>25499</v>
+      </c>
+      <c r="C35" s="6">
+        <v>6827755</v>
+      </c>
+      <c r="D35" s="6">
+        <v>49858</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1039</v>
+      </c>
+      <c r="F35" s="6">
+        <v>927307</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J35" s="6">
+        <v>2245</v>
+      </c>
+      <c r="K35" s="6">
+        <v>1915021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1980</v>
+      </c>
+      <c r="C36" s="6">
+        <v>6761422</v>
+      </c>
+      <c r="D36" s="6">
+        <v>64925</v>
+      </c>
+      <c r="E36" s="6">
+        <v>950</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1255225</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J36" s="6">
+        <v>2150</v>
+      </c>
+      <c r="K36" s="6">
+        <v>1571752</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="6">
+        <v>7904</v>
+      </c>
+      <c r="C37" s="6">
+        <v>6749035</v>
+      </c>
+      <c r="D37" s="6">
+        <v>72222</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1104</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1397196</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J37" s="6">
+        <v>2010</v>
+      </c>
+      <c r="K37" s="6">
+        <v>1437562</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="6">
+        <v>25812</v>
+      </c>
+      <c r="C38" s="6">
+        <v>6737053</v>
+      </c>
+      <c r="D38" s="6">
+        <v>84003</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1381</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1657811</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J38" s="6">
+        <v>1898</v>
+      </c>
+      <c r="K38" s="6">
+        <v>1454464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39" s="6">
+        <v>27956</v>
+      </c>
+      <c r="C39" s="6">
+        <v>6728758</v>
+      </c>
+      <c r="D39" s="6">
+        <v>79500</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1315</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1577504</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J39" s="6">
+        <v>2020</v>
+      </c>
+      <c r="K39" s="6">
+        <v>1518301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="6">
+        <v>574</v>
+      </c>
+      <c r="C40" s="6">
+        <v>6725557</v>
+      </c>
+      <c r="D40" s="6">
+        <v>76191</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1105</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1466708</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J40" s="6">
+        <v>1646</v>
+      </c>
+      <c r="K40" s="6">
+        <v>1755181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B41" s="6">
+        <v>29600</v>
+      </c>
+      <c r="C41" s="6">
+        <v>6661410</v>
+      </c>
+      <c r="D41" s="6">
+        <v>53450</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1627</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1046968</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I41" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J41" s="6">
+        <v>2484</v>
+      </c>
+      <c r="K41" s="6">
+        <v>1489996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="6">
+        <v>853</v>
+      </c>
+      <c r="C42" s="6">
+        <v>6648564</v>
+      </c>
+      <c r="D42" s="6">
+        <v>89459</v>
+      </c>
+      <c r="E42" s="6">
+        <v>850</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1747406</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I42" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J42" s="6">
+        <v>2070</v>
+      </c>
+      <c r="K42" s="6">
+        <v>1337878</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="6">
+        <v>13332</v>
+      </c>
+      <c r="C43" s="6">
+        <v>6643184</v>
+      </c>
+      <c r="D43" s="6">
+        <v>47356</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1057</v>
+      </c>
+      <c r="F43" s="6">
+        <v>948410</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I43" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J43" s="6">
+        <v>2435</v>
+      </c>
+      <c r="K43" s="6">
+        <v>1503496</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="6">
+        <v>3966</v>
+      </c>
+      <c r="C44" s="6">
+        <v>6627985</v>
+      </c>
+      <c r="D44" s="6">
+        <v>46238</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1706</v>
+      </c>
+      <c r="F44" s="6">
+        <v>889220</v>
+      </c>
+      <c r="G44" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I44" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J44" s="6">
+        <v>2121</v>
+      </c>
+      <c r="K44" s="6">
+        <v>1927495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="6">
+        <v>6820</v>
+      </c>
+      <c r="C45" s="6">
+        <v>6576555</v>
+      </c>
+      <c r="D45" s="6">
+        <v>46582</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1060</v>
+      </c>
+      <c r="F45" s="6">
+        <v>948852</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I45" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J45" s="6">
+        <v>2419</v>
+      </c>
+      <c r="K45" s="6">
+        <v>1341370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" s="6">
+        <v>32886</v>
+      </c>
+      <c r="C46" s="6">
+        <v>6554295</v>
+      </c>
+      <c r="D46" s="6">
+        <v>79627</v>
+      </c>
+      <c r="E46" s="6">
+        <v>987</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1372619</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I46" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J46" s="6">
+        <v>2008</v>
+      </c>
+      <c r="K46" s="6">
+        <v>1550152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47" s="6">
+        <v>73370</v>
+      </c>
+      <c r="C47" s="6">
+        <v>6553848</v>
+      </c>
+      <c r="D47" s="6">
+        <v>50007</v>
+      </c>
+      <c r="E47" s="6">
+        <v>3890</v>
+      </c>
+      <c r="F47" s="6">
+        <v>999496</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I47" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J47" s="6">
+        <v>2139</v>
+      </c>
+      <c r="K47" s="6">
+        <v>2157526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="6">
+        <v>35080</v>
+      </c>
+      <c r="C48" s="6">
+        <v>6541574</v>
+      </c>
+      <c r="D48" s="6">
+        <v>75197</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1431</v>
+      </c>
+      <c r="F48" s="6">
+        <v>1326936</v>
+      </c>
+      <c r="G48" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I48" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J48" s="6">
+        <v>2130</v>
+      </c>
+      <c r="K48" s="6">
+        <v>1420512</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="6">
+        <v>26293</v>
+      </c>
+      <c r="C49" s="6">
+        <v>6533633</v>
+      </c>
+      <c r="D49" s="6">
+        <v>51351</v>
+      </c>
+      <c r="E49" s="6">
+        <v>790</v>
+      </c>
+      <c r="F49" s="6">
+        <v>923381</v>
+      </c>
+      <c r="G49" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J49" s="6">
+        <v>2122</v>
+      </c>
+      <c r="K49" s="6">
+        <v>1466452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50" s="6">
+        <v>3241</v>
+      </c>
+      <c r="C50" s="6">
+        <v>6520485</v>
+      </c>
+      <c r="D50" s="6">
+        <v>52735</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1030</v>
+      </c>
+      <c r="F50" s="6">
+        <v>1032172</v>
+      </c>
+      <c r="G50" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I50" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J50" s="6">
+        <v>2201</v>
+      </c>
+      <c r="K50" s="6">
+        <v>1420966</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="6">
+        <v>7679</v>
+      </c>
+      <c r="C51" s="6">
+        <v>6515326</v>
+      </c>
+      <c r="D51" s="6">
+        <v>48302</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1012</v>
+      </c>
+      <c r="F51" s="6">
+        <v>881234</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I51" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J51" s="6">
+        <v>2025</v>
+      </c>
+      <c r="K51" s="6">
+        <v>1622739</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B52" s="6">
+        <v>16580</v>
+      </c>
+      <c r="C52" s="6">
+        <v>6501049</v>
+      </c>
+      <c r="D52" s="6">
+        <v>75043</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1536</v>
+      </c>
+      <c r="F52" s="6">
+        <v>1526282</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I52" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J52" s="6">
+        <v>1877</v>
+      </c>
+      <c r="K52" s="6">
+        <v>1294971</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="6">
+        <v>1941</v>
+      </c>
+      <c r="C53" s="6">
+        <v>6485548</v>
+      </c>
+      <c r="D53" s="6">
+        <v>54490</v>
+      </c>
+      <c r="E53" s="6">
+        <v>1074</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1065907</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I53" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J53" s="6">
+        <v>1834</v>
+      </c>
+      <c r="K53" s="6">
+        <v>1650475</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="6">
+        <v>9356</v>
+      </c>
+      <c r="C54" s="6">
+        <v>6472940</v>
+      </c>
+      <c r="D54" s="6">
+        <v>62949</v>
+      </c>
+      <c r="E54" s="6">
+        <v>926</v>
+      </c>
+      <c r="F54" s="6">
+        <v>1255397</v>
+      </c>
+      <c r="G54" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I54" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J54" s="6">
+        <v>1886</v>
+      </c>
+      <c r="K54" s="6">
+        <v>1623615</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="6">
+        <v>22867</v>
+      </c>
+      <c r="C55" s="6">
+        <v>6434405</v>
+      </c>
+      <c r="D55" s="6">
+        <v>49238</v>
+      </c>
+      <c r="E55" s="6">
+        <v>938</v>
+      </c>
+      <c r="F55" s="6">
+        <v>959660</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I55" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J55" s="6">
+        <v>2202</v>
+      </c>
+      <c r="K55" s="6">
+        <v>1367290</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B56" s="6">
+        <v>162</v>
+      </c>
+      <c r="C56" s="6">
+        <v>6422034</v>
+      </c>
+      <c r="D56" s="6">
+        <v>45618</v>
+      </c>
+      <c r="E56" s="6">
+        <v>915</v>
+      </c>
+      <c r="F56" s="6">
+        <v>886491</v>
+      </c>
+      <c r="G56" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I56" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J56" s="6">
+        <v>2424</v>
+      </c>
+      <c r="K56" s="6">
+        <v>1331736</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="6">
+        <v>818</v>
+      </c>
+      <c r="C57" s="6">
+        <v>6416313</v>
+      </c>
+      <c r="D57" s="6">
+        <v>54423</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1189</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1050657</v>
+      </c>
+      <c r="G57" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I57" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J57" s="6">
+        <v>2213</v>
+      </c>
+      <c r="K57" s="6">
+        <v>1426222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="6">
+        <v>27113</v>
+      </c>
+      <c r="C58" s="6">
+        <v>6362522</v>
+      </c>
+      <c r="D58" s="6">
+        <v>54617</v>
+      </c>
+      <c r="E58" s="6">
+        <v>878</v>
+      </c>
+      <c r="F58" s="6">
+        <v>1000167</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I58" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J58" s="6">
+        <v>2384</v>
+      </c>
+      <c r="K58" s="6">
+        <v>1396900</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="6">
+        <v>14924</v>
+      </c>
+      <c r="C59" s="6">
+        <v>6354470</v>
+      </c>
+      <c r="D59" s="6">
+        <v>49167</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1191</v>
+      </c>
+      <c r="F59" s="6">
+        <v>940776</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I59" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J59" s="6">
+        <v>2331</v>
+      </c>
+      <c r="K59" s="6">
+        <v>1292925</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" s="6">
+        <v>10101</v>
+      </c>
+      <c r="C60" s="6">
+        <v>6353009</v>
+      </c>
+      <c r="D60" s="6">
+        <v>51550</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1221</v>
+      </c>
+      <c r="F60" s="6">
+        <v>1099362</v>
+      </c>
+      <c r="G60" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I60" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J60" s="6">
+        <v>1784</v>
+      </c>
+      <c r="K60" s="6">
+        <v>1466398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="6">
+        <v>1021</v>
+      </c>
+      <c r="C61" s="6">
+        <v>6341433</v>
+      </c>
+      <c r="D61" s="6">
+        <v>55220</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1201</v>
+      </c>
+      <c r="F61" s="6">
+        <v>1151481</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I61" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J61" s="6">
+        <v>1833</v>
+      </c>
+      <c r="K61" s="6">
+        <v>1554850</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="6">
+        <v>19278</v>
+      </c>
+      <c r="C62" s="6">
+        <v>6328637</v>
+      </c>
+      <c r="D62" s="6">
+        <v>36192</v>
+      </c>
+      <c r="E62" s="6">
+        <v>775</v>
+      </c>
+      <c r="F62" s="6">
+        <v>706838</v>
+      </c>
+      <c r="G62" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I62" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J62" s="6">
+        <v>2253</v>
+      </c>
+      <c r="K62" s="6">
+        <v>1649881</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="6">
+        <v>420</v>
+      </c>
+      <c r="C63" s="6">
+        <v>6237735</v>
+      </c>
+      <c r="D63" s="6">
+        <v>49531</v>
+      </c>
+      <c r="E63" s="6">
+        <v>889</v>
+      </c>
+      <c r="F63" s="6">
+        <v>952897</v>
+      </c>
+      <c r="G63" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I63" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J63" s="6">
+        <v>2019</v>
+      </c>
+      <c r="K63" s="6">
+        <v>1355410</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="6">
+        <v>1809</v>
+      </c>
+      <c r="C64" s="6">
+        <v>6213529</v>
+      </c>
+      <c r="D64" s="6">
+        <v>47633</v>
+      </c>
+      <c r="E64" s="6">
+        <v>996</v>
+      </c>
+      <c r="F64" s="6">
+        <v>902483</v>
+      </c>
+      <c r="G64" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I64" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J64" s="6">
+        <v>2011</v>
+      </c>
+      <c r="K64" s="6">
+        <v>1469962</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="6">
+        <v>27270</v>
+      </c>
+      <c r="C65" s="6">
+        <v>6184518</v>
+      </c>
+      <c r="D65" s="6">
+        <v>49710</v>
+      </c>
+      <c r="E65" s="6">
+        <v>1155</v>
+      </c>
+      <c r="F65" s="6">
+        <v>927107</v>
+      </c>
+      <c r="G65" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I65" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J65" s="6">
+        <v>1763</v>
+      </c>
+      <c r="K65" s="6">
+        <v>1454572</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="6">
+        <v>13166</v>
+      </c>
+      <c r="C66" s="6">
+        <v>6160458</v>
+      </c>
+      <c r="D66" s="6">
+        <v>48938</v>
+      </c>
+      <c r="E66" s="6">
+        <v>763</v>
+      </c>
+      <c r="F66" s="6">
+        <v>960174</v>
+      </c>
+      <c r="G66" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I66" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J66" s="6">
+        <v>2066</v>
+      </c>
+      <c r="K66" s="6">
+        <v>1389576</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="6">
+        <v>304</v>
+      </c>
+      <c r="C67" s="6">
+        <v>6139969</v>
+      </c>
+      <c r="D67" s="6">
+        <v>55934</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1237</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1156891</v>
+      </c>
+      <c r="G67" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I67" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J67" s="6">
+        <v>1788</v>
+      </c>
+      <c r="K67" s="6">
+        <v>1293002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="6">
+        <v>23524</v>
+      </c>
+      <c r="C68" s="6">
+        <v>6129840</v>
+      </c>
+      <c r="D68" s="6">
+        <v>48821</v>
+      </c>
+      <c r="E68" s="6">
+        <v>826</v>
+      </c>
+      <c r="F68" s="6">
+        <v>907585</v>
+      </c>
+      <c r="G68" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I68" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J68" s="6">
+        <v>2068</v>
+      </c>
+      <c r="K68" s="6">
+        <v>1313061</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="6">
+        <v>7219</v>
+      </c>
+      <c r="C69" s="6">
+        <v>6128877</v>
+      </c>
+      <c r="D69" s="6">
+        <v>37559</v>
+      </c>
+      <c r="E69" s="6">
+        <v>752</v>
+      </c>
+      <c r="F69" s="6">
+        <v>691111</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1699</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I69" s="6">
+        <v>49880</v>
+      </c>
+      <c r="J69" s="6">
+        <v>2047</v>
+      </c>
+      <c r="K69" s="6">
+        <v>1656354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="6">
+        <v>12727</v>
+      </c>
+      <c r="C70" s="6">
+        <v>6117665</v>
+      </c>
+      <c r="D70" s="6">
+        <v>55150</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1269</v>
+      </c>
+      <c r="F70" s="6">
+        <v>1025428</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I70" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J70" s="6">
+        <v>1663</v>
+      </c>
+      <c r="K70" s="6">
+        <v>1652169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="6">
+        <v>6826</v>
+      </c>
+      <c r="C71" s="6">
+        <v>6102511</v>
+      </c>
+      <c r="D71" s="6">
+        <v>55272</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1022</v>
+      </c>
+      <c r="F71" s="6">
+        <v>1095381</v>
+      </c>
+      <c r="G71" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I71" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J71" s="6">
+        <v>1926</v>
+      </c>
+      <c r="K71" s="6">
+        <v>1377352</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="6">
+        <v>52492</v>
+      </c>
+      <c r="C72" s="6">
+        <v>6063774</v>
+      </c>
+      <c r="D72" s="6">
+        <v>27848</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1045</v>
+      </c>
+      <c r="F72" s="6">
+        <v>570942</v>
+      </c>
+      <c r="G72" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I72" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J72" s="6">
+        <v>1968</v>
+      </c>
+      <c r="K72" s="6">
+        <v>1824589</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="6">
+        <v>11010</v>
+      </c>
+      <c r="C73" s="6">
+        <v>6054565</v>
+      </c>
+      <c r="D73" s="6">
+        <v>41206</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1177</v>
+      </c>
+      <c r="F73" s="6">
+        <v>813093</v>
+      </c>
+      <c r="G73" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I73" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J73" s="6">
+        <v>2279</v>
+      </c>
+      <c r="K73" s="6">
+        <v>1279756</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="6">
+        <v>30847</v>
+      </c>
+      <c r="C74" s="6">
+        <v>6027263</v>
+      </c>
+      <c r="D74" s="6">
+        <v>55777</v>
+      </c>
+      <c r="E74" s="6">
+        <v>885</v>
+      </c>
+      <c r="F74" s="6">
+        <v>1108342</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I74" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J74" s="6">
+        <v>2069</v>
+      </c>
+      <c r="K74" s="6">
+        <v>1326183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="6">
+        <v>956</v>
+      </c>
+      <c r="C75" s="6">
+        <v>6011308</v>
+      </c>
+      <c r="D75" s="6">
+        <v>48391</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1059</v>
+      </c>
+      <c r="F75" s="6">
+        <v>995121</v>
+      </c>
+      <c r="G75" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I75" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J75" s="6">
+        <v>1801</v>
+      </c>
+      <c r="K75" s="6">
+        <v>1248693</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="6">
+        <v>1032</v>
+      </c>
+      <c r="C76" s="6">
+        <v>5997568</v>
+      </c>
+      <c r="D76" s="6">
+        <v>47039</v>
+      </c>
+      <c r="E76" s="6">
+        <v>903</v>
+      </c>
+      <c r="F76" s="6">
+        <v>965796</v>
+      </c>
+      <c r="G76" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I76" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J76" s="6">
+        <v>1789</v>
+      </c>
+      <c r="K76" s="6">
+        <v>1267467</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="6">
+        <v>12259</v>
+      </c>
+      <c r="C77" s="6">
+        <v>5926565</v>
+      </c>
+      <c r="D77" s="6">
+        <v>48065</v>
+      </c>
+      <c r="E77" s="6">
+        <v>1137</v>
+      </c>
+      <c r="F77" s="6">
+        <v>976088</v>
+      </c>
+      <c r="G77" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I77" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J77" s="6">
+        <v>1888</v>
+      </c>
+      <c r="K77" s="6">
+        <v>1210960</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" s="6">
+        <v>13797</v>
+      </c>
+      <c r="C78" s="6">
+        <v>5900127</v>
+      </c>
+      <c r="D78" s="6">
+        <v>35771</v>
+      </c>
+      <c r="E78" s="6">
+        <v>827</v>
+      </c>
+      <c r="F78" s="6">
+        <v>715246</v>
+      </c>
+      <c r="G78" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I78" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J78" s="6">
+        <v>2020</v>
+      </c>
+      <c r="K78" s="6">
+        <v>1345890</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" s="6">
+        <v>27230</v>
+      </c>
+      <c r="C79" s="6">
+        <v>5868456</v>
+      </c>
+      <c r="D79" s="6">
+        <v>43990</v>
+      </c>
+      <c r="E79" s="6">
+        <v>993</v>
+      </c>
+      <c r="F79" s="6">
+        <v>875965</v>
+      </c>
+      <c r="G79" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I79" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J79" s="6">
+        <v>1828</v>
+      </c>
+      <c r="K79" s="6">
+        <v>1407538</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" s="6">
+        <v>15046</v>
+      </c>
+      <c r="C80" s="6">
+        <v>5840436</v>
+      </c>
+      <c r="D80" s="6">
+        <v>50014</v>
+      </c>
+      <c r="E80" s="6">
+        <v>1070</v>
+      </c>
+      <c r="F80" s="6">
+        <v>897355</v>
+      </c>
+      <c r="G80" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I80" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J80" s="6">
+        <v>1756</v>
+      </c>
+      <c r="K80" s="6">
+        <v>1497502</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="6">
+        <v>58190</v>
+      </c>
+      <c r="C81" s="6">
+        <v>5801527</v>
+      </c>
+      <c r="D81" s="6">
+        <v>46975</v>
+      </c>
+      <c r="E81" s="6">
+        <v>1237</v>
+      </c>
+      <c r="F81" s="6">
+        <v>930505</v>
+      </c>
+      <c r="G81" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I81" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J81" s="6">
+        <v>2112</v>
+      </c>
+      <c r="K81" s="6">
+        <v>1445478</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B82" s="6">
+        <v>12081</v>
+      </c>
+      <c r="C82" s="6">
+        <v>5784530</v>
+      </c>
+      <c r="D82" s="6">
+        <v>30249</v>
+      </c>
+      <c r="E82" s="6">
+        <v>882</v>
+      </c>
+      <c r="F82" s="6">
+        <v>594369</v>
+      </c>
+      <c r="G82" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I82" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J82" s="6">
+        <v>2086</v>
+      </c>
+      <c r="K82" s="6">
+        <v>1398682</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C83" s="6">
+        <v>5780199</v>
+      </c>
+      <c r="D83" s="6">
+        <v>42861</v>
+      </c>
+      <c r="E83" s="6">
+        <v>962</v>
+      </c>
+      <c r="F83" s="6">
+        <v>770305</v>
+      </c>
+      <c r="G83" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I83" s="6">
+        <v>49690</v>
+      </c>
+      <c r="J83" s="6">
+        <v>1915</v>
+      </c>
+      <c r="K83" s="6">
+        <v>1243450</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" s="6">
+        <v>50373</v>
+      </c>
+      <c r="C84" s="6">
+        <v>5778061</v>
+      </c>
+      <c r="D84" s="6">
+        <v>47911</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1198</v>
+      </c>
+      <c r="F84" s="6">
+        <v>971328</v>
+      </c>
+      <c r="G84" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I84" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J84" s="6">
+        <v>1886</v>
+      </c>
+      <c r="K84" s="6">
+        <v>1213815</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" s="6">
+        <v>28663</v>
+      </c>
+      <c r="C85" s="6">
+        <v>5697434</v>
+      </c>
+      <c r="D85" s="6">
+        <v>49970</v>
+      </c>
+      <c r="E85" s="6">
+        <v>834</v>
+      </c>
+      <c r="F85" s="6">
+        <v>934103</v>
+      </c>
+      <c r="G85" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I85" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J85" s="6">
+        <v>1893</v>
+      </c>
+      <c r="K85" s="6">
+        <v>1288876</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" s="6">
+        <v>55539</v>
+      </c>
+      <c r="C86" s="6">
+        <v>5671226</v>
+      </c>
+      <c r="D86" s="6">
+        <v>36608</v>
+      </c>
+      <c r="E86" s="6">
+        <v>1012</v>
+      </c>
+      <c r="F86" s="6">
+        <v>747723</v>
+      </c>
+      <c r="G86" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I86" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J86" s="6">
+        <v>1909</v>
+      </c>
+      <c r="K86" s="6">
+        <v>1306594</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" s="6">
+        <v>35397</v>
+      </c>
+      <c r="C87" s="6">
+        <v>5629941</v>
+      </c>
+      <c r="D87" s="6">
+        <v>38180</v>
+      </c>
+      <c r="E87" s="6">
+        <v>2691</v>
+      </c>
+      <c r="F87" s="6">
+        <v>751121</v>
+      </c>
+      <c r="G87" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I87" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J87" s="6">
+        <v>1713</v>
+      </c>
+      <c r="K87" s="6">
+        <v>1459234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" s="6">
+        <v>36320</v>
+      </c>
+      <c r="C88" s="6">
+        <v>5550705</v>
+      </c>
+      <c r="D88" s="6">
+        <v>25332</v>
+      </c>
+      <c r="E88" s="6">
+        <v>894</v>
+      </c>
+      <c r="F88" s="6">
+        <v>490438</v>
+      </c>
+      <c r="G88" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I88" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J88" s="6">
+        <v>1695</v>
+      </c>
+      <c r="K88" s="6">
+        <v>1776511</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" s="6">
+        <v>12748</v>
+      </c>
+      <c r="C89" s="6">
+        <v>5443968</v>
+      </c>
+      <c r="D89" s="6">
+        <v>27385</v>
+      </c>
+      <c r="E89" s="6">
+        <v>1005</v>
+      </c>
+      <c r="F89" s="6">
+        <v>535662</v>
+      </c>
+      <c r="G89" s="6">
+        <v>1840</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I89" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J89" s="6">
+        <v>1817</v>
+      </c>
+      <c r="K89" s="6">
+        <v>1470610</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:K89">
+    <sortCondition descending="1" ref="C1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A89">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E89">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>840</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54A5E53-73E0-4B48-8154-7F474D90641B}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:K91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4515,13 +7709,14 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52857027-8390-C442-8A8F-6D3A1C67E556}">
   <dimension ref="A1:K89"/>
   <sheetViews>
@@ -7654,10 +10849,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7665,7 +10860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE93BAE1-D23A-6849-9302-F85A760502DA}">
   <dimension ref="A1:K91"/>
   <sheetViews>
@@ -10870,10 +14065,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>900</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10882,7 +14077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J91"/>
   <sheetViews>
@@ -13812,17 +17007,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D38C792-EAA2-8B42-B0E7-F48EFA899741}">
   <dimension ref="A1:J84"/>
   <sheetViews>
@@ -16527,1577 +19722,1304 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D719624A-6405-5B44-9B87-298789B90485}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E91"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>21542</v>
       </c>
-      <c r="C2" s="3">
-        <v>136156</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="6">
+        <v>143694</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>1229</v>
       </c>
-      <c r="C3" s="3">
-        <v>128991</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="6">
+        <v>130020</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>20265</v>
       </c>
-      <c r="C4" s="3">
-        <v>120156</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="6">
+        <v>121233</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>20851</v>
       </c>
-      <c r="C5" s="3">
-        <v>108177</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="6">
+        <v>112379</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="6">
+        <v>380</v>
+      </c>
+      <c r="C6" s="6">
+        <v>126296</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="6">
         <v>960</v>
       </c>
-      <c r="C6" s="3">
-        <v>116183</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C7" s="6">
+        <v>119557</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="6">
         <v>32933</v>
       </c>
-      <c r="C7" s="3">
-        <v>96082</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="C8" s="6">
+        <v>103717</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="6">
+        <v>17443</v>
+      </c>
+      <c r="C9" s="6">
+        <v>104045</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6">
+        <v>17275</v>
+      </c>
+      <c r="C10" s="6">
+        <v>94892</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B11" s="6">
         <v>66</v>
       </c>
-      <c r="C8" s="3">
-        <v>99586</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C11" s="6">
+        <v>101695</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3">
-        <v>17275</v>
-      </c>
-      <c r="C9" s="3">
-        <v>91520</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B12" s="6">
         <v>15458</v>
       </c>
-      <c r="C10" s="3">
-        <v>64097</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C12" s="6">
+        <v>66553</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B13" s="6">
         <v>25824</v>
       </c>
-      <c r="C11" s="3">
-        <v>97676</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C13" s="6">
+        <v>100959</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="6">
+        <v>17934</v>
+      </c>
+      <c r="C14" s="6">
+        <v>99673</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="6">
+        <v>22260</v>
+      </c>
+      <c r="C15" s="6">
+        <v>81626</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B16" s="6">
         <v>59362</v>
       </c>
-      <c r="C12" s="3">
-        <v>83048</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C16" s="6">
+        <v>85376</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="3">
-        <v>22260</v>
-      </c>
-      <c r="C13" s="3">
-        <v>79294</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="3">
-        <v>17934</v>
-      </c>
-      <c r="C14" s="3">
-        <v>97485</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="3">
-        <v>17443</v>
-      </c>
-      <c r="C15" s="3">
-        <v>100309</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1821</v>
-      </c>
-      <c r="E15" s="2" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="6">
+        <v>81910</v>
+      </c>
+      <c r="C17" s="6">
+        <v>49082</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="6">
+        <v>8833</v>
+      </c>
+      <c r="C18" s="6">
+        <v>61363</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="6">
+        <v>14624</v>
+      </c>
+      <c r="C19" s="6">
+        <v>64256</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="6">
+        <v>9848</v>
+      </c>
+      <c r="C20" s="6">
+        <v>82571</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="6">
+        <v>18257</v>
+      </c>
+      <c r="C21" s="6">
+        <v>65444</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="6">
+        <v>11386</v>
+      </c>
+      <c r="C22" s="6">
+        <v>88057</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="6">
+        <v>3217</v>
+      </c>
+      <c r="C23" s="6">
+        <v>117060</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="6">
+        <v>648</v>
+      </c>
+      <c r="C24" s="6">
+        <v>79484</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" s="6">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="3">
-        <v>14624</v>
-      </c>
-      <c r="C16" s="3">
-        <v>62474</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
+      <c r="C25" s="6">
+        <v>50083</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="6">
+        <v>15930</v>
+      </c>
+      <c r="C26" s="6">
+        <v>51739</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2326</v>
+      </c>
+      <c r="C27" s="6">
+        <v>94213</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="6">
+        <v>13556</v>
+      </c>
+      <c r="C28" s="6">
+        <v>60186</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="6">
+        <v>31810</v>
+      </c>
+      <c r="C29" s="6">
+        <v>68494</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="6">
+        <v>172</v>
+      </c>
+      <c r="C30" s="6">
+        <v>53189</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="6">
+        <v>7904</v>
+      </c>
+      <c r="C31" s="6">
+        <v>71118</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="6">
+        <v>25499</v>
+      </c>
+      <c r="C32" s="6">
+        <v>48819</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="6">
+        <v>25812</v>
+      </c>
+      <c r="C33" s="6">
+        <v>82622</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" s="6">
+        <v>8821</v>
+      </c>
+      <c r="C34" s="6">
+        <v>41902</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="6">
+        <v>8839</v>
+      </c>
+      <c r="C35" s="6">
+        <v>53417</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="6">
+        <v>574</v>
+      </c>
+      <c r="C36" s="6">
+        <v>75086</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" s="6">
         <v>41</v>
       </c>
-      <c r="B17" s="3">
-        <v>81910</v>
-      </c>
-      <c r="C17" s="3">
-        <v>46071</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="3">
-        <v>9848</v>
-      </c>
-      <c r="C18" s="3">
-        <v>80450</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B19" s="3">
-        <v>18257</v>
-      </c>
-      <c r="C19" s="3">
-        <v>63499</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="3">
-        <v>11386</v>
-      </c>
-      <c r="C20" s="3">
-        <v>84684</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="3">
-        <v>12148</v>
-      </c>
-      <c r="C21" s="3">
-        <v>75206</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="3">
-        <v>8833</v>
-      </c>
-      <c r="C22" s="3">
-        <v>56140</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="3">
-        <v>13556</v>
-      </c>
-      <c r="C23" s="3">
-        <v>58473</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="3">
-        <v>31810</v>
-      </c>
-      <c r="C24" s="3">
-        <v>65457</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="3">
-        <v>2326</v>
-      </c>
-      <c r="C25" s="3">
-        <v>91399</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="3">
-        <v>25499</v>
-      </c>
-      <c r="C26" s="3">
-        <v>47049</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="3">
-        <v>8839</v>
-      </c>
-      <c r="C27" s="3">
-        <v>51769</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="3">
-        <v>574</v>
-      </c>
-      <c r="C28" s="3">
-        <v>72975</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="3">
-        <v>25812</v>
-      </c>
-      <c r="C29" s="3">
-        <v>79958</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="3">
-        <v>41</v>
-      </c>
-      <c r="C30" s="3">
-        <v>58231</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="C37" s="6">
+        <v>60178</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B31" s="3">
+    <row r="38" spans="1:4">
+      <c r="A38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1980</v>
+      </c>
+      <c r="C38" s="6">
+        <v>63975</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39" s="6">
         <v>27956</v>
       </c>
-      <c r="C31" s="3">
-        <v>75654</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="C39" s="6">
+        <v>78185</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1499</v>
-      </c>
-      <c r="C32" s="3">
-        <v>61544</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="3">
-        <v>15930</v>
-      </c>
-      <c r="C33" s="3">
-        <v>49643</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="3">
-        <v>7904</v>
-      </c>
-      <c r="C34" s="3">
-        <v>68985</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1980</v>
-      </c>
-      <c r="C35" s="3">
-        <v>61355</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="6">
+        <v>40128</v>
+      </c>
+      <c r="C40" s="6">
+        <v>57493</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="6">
+        <v>13332</v>
+      </c>
+      <c r="C41" s="6">
+        <v>46299</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="6">
+        <v>29600</v>
+      </c>
+      <c r="C42" s="6">
+        <v>51823</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B43" s="6">
         <v>853</v>
       </c>
-      <c r="C36" s="3">
-        <v>86914</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="C43" s="6">
+        <v>88609</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="3">
+    <row r="44" spans="1:4">
+      <c r="A44" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="6">
+        <v>35080</v>
+      </c>
+      <c r="C44" s="6">
+        <v>73766</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" s="6">
+        <v>32886</v>
+      </c>
+      <c r="C45" s="6">
+        <v>78640</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="6">
+        <v>7679</v>
+      </c>
+      <c r="C46" s="6">
+        <v>47290</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="6">
+        <v>3966</v>
+      </c>
+      <c r="C47" s="6">
+        <v>44532</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="6">
+        <v>26293</v>
+      </c>
+      <c r="C48" s="6">
+        <v>50561</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" s="6">
+        <v>16580</v>
+      </c>
+      <c r="C49" s="6">
+        <v>73507</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="6">
+        <v>22867</v>
+      </c>
+      <c r="C50" s="6">
+        <v>48300</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="6">
+        <v>6820</v>
+      </c>
+      <c r="C51" s="6">
+        <v>45522</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="6">
+        <v>818</v>
+      </c>
+      <c r="C52" s="6">
+        <v>53234</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B53" s="6">
+        <v>3241</v>
+      </c>
+      <c r="C53" s="6">
+        <v>51705</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="6">
+        <v>1941</v>
+      </c>
+      <c r="C54" s="6">
+        <v>53416</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="6">
+        <v>27113</v>
+      </c>
+      <c r="C55" s="6">
+        <v>53739</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B56" s="6">
+        <v>162</v>
+      </c>
+      <c r="C56" s="6">
+        <v>44703</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="6">
+        <v>9356</v>
+      </c>
+      <c r="C57" s="6">
+        <v>62023</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="6">
+        <v>19278</v>
+      </c>
+      <c r="C58" s="6">
+        <v>35417</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="6">
+        <v>1021</v>
+      </c>
+      <c r="C59" s="6">
+        <v>54019</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="6">
+        <v>14924</v>
+      </c>
+      <c r="C60" s="6">
+        <v>47976</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="6">
+        <v>420</v>
+      </c>
+      <c r="C61" s="6">
+        <v>48642</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="6">
+        <v>993</v>
+      </c>
+      <c r="C62" s="6">
+        <v>56552</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="6">
+        <v>27270</v>
+      </c>
+      <c r="C63" s="6">
+        <v>48555</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B64" s="6">
+        <v>73370</v>
+      </c>
+      <c r="C64" s="6">
+        <v>46117</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="6">
+        <v>1809</v>
+      </c>
+      <c r="C65" s="6">
+        <v>46637</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B66" s="6">
+        <v>10101</v>
+      </c>
+      <c r="C66" s="6">
+        <v>50329</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="6">
+        <v>304</v>
+      </c>
+      <c r="C67" s="6">
+        <v>54697</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="6">
+        <v>12727</v>
+      </c>
+      <c r="C68" s="6">
+        <v>53881</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="6">
+        <v>1134</v>
+      </c>
+      <c r="C69" s="6">
+        <v>49217</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="6">
+        <v>7219</v>
+      </c>
+      <c r="C70" s="6">
+        <v>36807</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="6">
+        <v>23524</v>
+      </c>
+      <c r="C71" s="6">
+        <v>47995</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="6">
+        <v>13166</v>
+      </c>
+      <c r="C72" s="6">
+        <v>48175</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="6">
+        <v>11010</v>
+      </c>
+      <c r="C73" s="6">
+        <v>40029</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="6">
+        <v>6826</v>
+      </c>
+      <c r="C74" s="6">
+        <v>54250</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="6">
+        <v>956</v>
+      </c>
+      <c r="C75" s="6">
+        <v>47332</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" s="6">
+        <v>52492</v>
+      </c>
+      <c r="C76" s="6">
+        <v>26803</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="6">
+        <v>30847</v>
+      </c>
+      <c r="C77" s="6">
+        <v>54892</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" s="6">
+        <v>1032</v>
+      </c>
+      <c r="C78" s="6">
+        <v>46136</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" s="6">
+        <v>13797</v>
+      </c>
+      <c r="C79" s="6">
+        <v>34944</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B80" s="6">
+        <v>12259</v>
+      </c>
+      <c r="C80" s="6">
+        <v>46928</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" s="6">
+        <v>27230</v>
+      </c>
+      <c r="C81" s="6">
+        <v>42997</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B82" s="6">
+        <v>12081</v>
+      </c>
+      <c r="C82" s="6">
+        <v>29367</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83" s="6">
+        <v>50373</v>
+      </c>
+      <c r="C83" s="6">
+        <v>46713</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" s="6">
+        <v>15046</v>
+      </c>
+      <c r="C84" s="6">
+        <v>48944</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" s="6">
+        <v>28663</v>
+      </c>
+      <c r="C85" s="6">
+        <v>49136</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="6">
+        <v>13389</v>
+      </c>
+      <c r="C86" s="6">
+        <v>41899</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" s="6">
+        <v>55539</v>
+      </c>
+      <c r="C87" s="6">
+        <v>35596</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="6">
+        <v>58190</v>
+      </c>
+      <c r="C88" s="6">
+        <v>45738</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" s="6">
+        <v>36320</v>
+      </c>
+      <c r="C89" s="6">
+        <v>24438</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B90" s="6">
+        <v>35397</v>
+      </c>
+      <c r="C90" s="6">
+        <v>35489</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C37" s="3">
-        <v>51396</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B38" s="3">
-        <v>32886</v>
-      </c>
-      <c r="C38" s="3">
-        <v>76840</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1835</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="3">
-        <v>35080</v>
-      </c>
-      <c r="C39" s="3">
-        <v>71007</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="3">
-        <v>26293</v>
-      </c>
-      <c r="C40" s="3">
-        <v>48998</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="3">
-        <v>818</v>
-      </c>
-      <c r="C41" s="3">
-        <v>50937</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B42" s="3">
-        <v>6820</v>
-      </c>
-      <c r="C42" s="3">
-        <v>43438</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="3">
-        <v>1941</v>
-      </c>
-      <c r="C43" s="3">
-        <v>51415</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="3">
-        <v>9356</v>
-      </c>
-      <c r="C44" s="3">
-        <v>59869</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="3">
-        <v>7679</v>
-      </c>
-      <c r="C45" s="3">
-        <v>45320</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="3">
-        <v>3966</v>
-      </c>
-      <c r="C46" s="3">
-        <v>41901</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" s="3">
-        <v>22867</v>
-      </c>
-      <c r="C47" s="3">
-        <v>46515</v>
-      </c>
-      <c r="D47" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B48" s="3">
-        <v>162</v>
-      </c>
-      <c r="C48" s="3">
-        <v>42912</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="3">
-        <v>19278</v>
-      </c>
-      <c r="C49" s="3">
-        <v>33723</v>
-      </c>
-      <c r="D49" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" s="3">
-        <v>1021</v>
-      </c>
-      <c r="C50" s="3">
-        <v>51715</v>
-      </c>
-      <c r="D50" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="3">
-        <v>14924</v>
-      </c>
-      <c r="C51" s="3">
-        <v>45874</v>
-      </c>
-      <c r="D51" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B52" s="3">
-        <v>16580</v>
-      </c>
-      <c r="C52" s="3">
-        <v>70745</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" s="3">
-        <v>993</v>
-      </c>
-      <c r="C53" s="3">
-        <v>54571</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" s="3">
-        <v>40128</v>
-      </c>
-      <c r="C54" s="3">
-        <v>53344</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B55" s="3">
-        <v>8821</v>
-      </c>
-      <c r="C55" s="3">
-        <v>39806</v>
-      </c>
-      <c r="D55" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56" s="3">
-        <v>13332</v>
-      </c>
-      <c r="C56" s="3">
-        <v>44243</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="3">
-        <v>27270</v>
-      </c>
-      <c r="C57" s="3">
-        <v>46591</v>
-      </c>
-      <c r="D57" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" s="3">
-        <v>420</v>
-      </c>
-      <c r="C58" s="3">
-        <v>47124</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B59" s="3">
-        <v>1134</v>
-      </c>
-      <c r="C59" s="3">
-        <v>47563</v>
-      </c>
-      <c r="D59" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B60" s="3">
-        <v>23524</v>
-      </c>
-      <c r="C60" s="3">
-        <v>46395</v>
-      </c>
-      <c r="D60" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B61" s="3">
-        <v>13166</v>
-      </c>
-      <c r="C61" s="3">
-        <v>46575</v>
-      </c>
-      <c r="D61" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" s="3">
-        <v>304</v>
-      </c>
-      <c r="C62" s="3">
-        <v>52800</v>
-      </c>
-      <c r="D62" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="3">
-        <v>27113</v>
-      </c>
-      <c r="C63" s="3">
-        <v>51697</v>
-      </c>
-      <c r="D63" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" s="3">
-        <v>6826</v>
-      </c>
-      <c r="C64" s="3">
-        <v>52302</v>
-      </c>
-      <c r="D64" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65" s="3">
-        <v>7219</v>
-      </c>
-      <c r="C65" s="3">
-        <v>35286</v>
-      </c>
-      <c r="D65" s="3">
-        <v>1685</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" s="3">
-        <v>1032</v>
-      </c>
-      <c r="C66" s="3">
-        <v>44470</v>
-      </c>
-      <c r="D66" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B67" s="3">
-        <v>30847</v>
-      </c>
-      <c r="C67" s="3">
-        <v>53279</v>
-      </c>
-      <c r="D67" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68" s="3">
-        <v>956</v>
-      </c>
-      <c r="C68" s="3">
-        <v>45370</v>
-      </c>
-      <c r="D68" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B69" s="3">
-        <v>12727</v>
-      </c>
-      <c r="C69" s="3">
-        <v>51985</v>
-      </c>
-      <c r="D69" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B70" s="3">
-        <v>11010</v>
-      </c>
-      <c r="C70" s="3">
-        <v>37885</v>
-      </c>
-      <c r="D70" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B71" s="3">
-        <v>1809</v>
-      </c>
-      <c r="C71" s="3">
-        <v>44909</v>
-      </c>
-      <c r="D71" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B72" s="3">
-        <v>13797</v>
-      </c>
-      <c r="C72" s="3">
-        <v>33318</v>
-      </c>
-      <c r="D72" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B73" s="3">
-        <v>50373</v>
-      </c>
-      <c r="C73" s="3">
-        <v>44401</v>
-      </c>
-      <c r="D73" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B74" s="3">
-        <v>27230</v>
-      </c>
-      <c r="C74" s="3">
-        <v>41311</v>
-      </c>
-      <c r="D74" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B75" s="3">
-        <v>12259</v>
-      </c>
-      <c r="C75" s="3">
-        <v>44574</v>
-      </c>
-      <c r="D75" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B76" s="3">
-        <v>10101</v>
-      </c>
-      <c r="C76" s="3">
-        <v>48001</v>
-      </c>
-      <c r="D76" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B77" s="3">
-        <v>52492</v>
-      </c>
-      <c r="C77" s="3">
-        <v>25077</v>
-      </c>
-      <c r="D77" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" s="3">
-        <v>15046</v>
-      </c>
-      <c r="C78" s="3">
-        <v>47159</v>
-      </c>
-      <c r="D78" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" s="3">
-        <v>2872</v>
-      </c>
-      <c r="C79" s="3">
-        <v>48933</v>
-      </c>
-      <c r="D79" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B80" s="3">
-        <v>13389</v>
-      </c>
-      <c r="C80" s="3">
-        <v>40296</v>
-      </c>
-      <c r="D80" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B81" s="3">
-        <v>73370</v>
-      </c>
-      <c r="C81" s="3">
-        <v>38542</v>
-      </c>
-      <c r="D81" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B82" s="3">
-        <v>28663</v>
-      </c>
-      <c r="C82" s="3">
-        <v>47493</v>
-      </c>
-      <c r="D82" s="3">
-        <v>1760</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B83" s="3">
-        <v>55539</v>
-      </c>
-      <c r="C83" s="3">
-        <v>33632</v>
-      </c>
-      <c r="D83" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B84" s="3">
-        <v>18854</v>
-      </c>
-      <c r="C84" s="3">
-        <v>54278</v>
-      </c>
-      <c r="D84" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B85" s="3">
-        <v>12081</v>
-      </c>
-      <c r="C85" s="3">
-        <v>27459</v>
-      </c>
-      <c r="D85" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B86" s="3">
-        <v>36320</v>
-      </c>
-      <c r="C86" s="3">
-        <v>22693</v>
-      </c>
-      <c r="D86" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="2" t="s">
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B91" s="6">
         <v>12748</v>
       </c>
-      <c r="C87" s="3">
-        <v>24611</v>
-      </c>
-      <c r="D87" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E87" s="2" t="s">
+      <c r="C91" s="6">
+        <v>26380</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B88" s="3">
-        <v>39619</v>
-      </c>
-      <c r="C88" s="3">
-        <v>47223</v>
-      </c>
-      <c r="D88" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B89" s="3">
-        <v>35397</v>
-      </c>
-      <c r="C89" s="3">
-        <v>30250</v>
-      </c>
-      <c r="D89" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B90" s="3">
-        <v>58190</v>
-      </c>
-      <c r="C90" s="3">
-        <v>43381</v>
-      </c>
-      <c r="D90" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B91" s="3">
-        <v>19658</v>
-      </c>
-      <c r="C91" s="3">
-        <v>21687</v>
-      </c>
-      <c r="D91" s="3">
-        <v>1840</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A91">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
